--- a/data/trans_camb/P24_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -637,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +671,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
         </is>
       </c>
     </row>
@@ -690,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,57</t>
+          <t>0,0; 16,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 4,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 7,42</t>
+          <t>-11,32; 4,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -1,16</t>
+          <t>-7,09; 11,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,52</t>
+          <t>-15,36; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 6,74</t>
+          <t>-11,72; 2,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; -0,65</t>
+          <t>-6,64; 2,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 8,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 0,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,91; 1,46</t>
         </is>
       </c>
     </row>
@@ -753,32 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>-51,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>43,89%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-29,71%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>-60,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>-53,33%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>93,02%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-65,18%</t>
         </is>
       </c>
     </row>
@@ -826,10 +895,25 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,09; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,76</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 8,53</t>
+          <t>1,8; 18,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 13,52</t>
+          <t>1,96; 19,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 7,33</t>
+          <t>1,22; 15,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,8</t>
+          <t>1,07; 16,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 15,37</t>
+          <t>0,0; 10,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,4</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,35</t>
+          <t>1,75; 14,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,61</t>
+          <t>1,87; 16,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,47</t>
+          <t>1,98; 10,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 12,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 11,0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 12,62</t>
         </is>
       </c>
     </row>
@@ -954,17 +1068,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>207,84%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,83%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -984,17 +1098,32 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>155,64%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>481,39%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>201,51%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1141,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,82; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1042,12 +1171,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,25; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,59; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 2,01</t>
+          <t>-1,68; 12,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 1,42</t>
+          <t>-8,26; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 5,06</t>
+          <t>-3,08; 10,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,67</t>
+          <t>-1,52; 12,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 7,83</t>
+          <t>-3,68; 6,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 8,43</t>
+          <t>-4,92; 3,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,47</t>
+          <t>-2,12; 9,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,12</t>
+          <t>-1,8; 18,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,94</t>
+          <t>-1,98; 5,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 1,93</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 6,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 12,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-49,29%</t>
+          <t>151,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-64,21%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,29%</t>
+          <t>130,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>274,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-28,67%</t>
+          <t>110,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>166,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>65,43%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-40,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>115,2%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>192,62%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1412,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 217,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,56; 314,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 567,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 570,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,69; 125,14</t>
+          <t>-61,94; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,28; 155,53</t>
+          <t>-72,69; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,85; 237,57</t>
+          <t>-67,38; 603,65</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-45,81; 777,97</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-37,27; 1063,32</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>11,63</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>7,04</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 6,16</t>
+          <t>-5,72; 6,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 13,43</t>
+          <t>2,84; 21,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 2,8</t>
+          <t>-6,18; 5,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 6,23</t>
+          <t>-4,2; 8,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 8,7</t>
+          <t>-4,67; 9,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,42</t>
+          <t>-4,5; 10,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,36</t>
+          <t>-4,93; 8,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 9,21</t>
+          <t>0,16; 16,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,75</t>
+          <t>-2,92; 6,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 13,19</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 5,3</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 9,53</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>177,79%</t>
+          <t>302,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-27,47%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>49,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>132,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>34,68%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>143,45%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>92,52%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-78,89; 421,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 766,5</t>
+          <t>-10,01; 1580,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,23; 264,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-52,32; 189,79</t>
+          <t>-81,04; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 256,02</t>
+          <t>-57,21; 404,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 203,6</t>
+          <t>-57,7; 380,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 135,6</t>
+          <t>-61,81; 312,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,03; 277,37</t>
+          <t>-14,46; 583,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 119,84</t>
+          <t>-42,62; 228,77</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 449,58</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-57,43; 202,01</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-16,56; 333,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>22,64</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>6,96</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7,51</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 11,08</t>
+          <t>-2,0; 13,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,7; 19,02</t>
+          <t>-0,49; 16,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 12,04</t>
+          <t>-0,36; 16,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 15,12</t>
+          <t>3,94; 25,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 14,61</t>
+          <t>3,69; 21,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,79; 19,95</t>
+          <t>2,04; 17,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,95; 10,8</t>
+          <t>1,94; 18,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 14,58</t>
+          <t>12,12; 35,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,9; 13,81</t>
+          <t>2,2; 13,68</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 14,44</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 13,0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10,78; 26,48</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>122,5%</t>
+          <t>156,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>313,34%</t>
+          <t>230,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>155,88%</t>
+          <t>229,34%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>691,69%</t>
+          <t>438,42%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>593,16%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1034,64%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>256,94%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>382,59%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>362,6%</t>
+          <t>390,81%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>421,89%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>379,49%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>993,97%</t>
         </is>
       </c>
     </row>
@@ -1655,22 +1964,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 889,78</t>
+          <t>-75,83; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>42,12; 1467,54</t>
+          <t>-51,07; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 1029,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,66; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1685,17 +1994,32 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,25; 897,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>88,28; 1414,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>63,54; 1337,17</t>
+          <t>15,91; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>10,76; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>173,81; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>24,52</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7,21</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>14,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 12,3</t>
+          <t>-9,76; 16,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 10,17</t>
+          <t>-15,13; 10,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 14,71</t>
+          <t>-5,41; 24,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,48; 21,94</t>
+          <t>-12,15; 16,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 9,71</t>
+          <t>-3,02; 16,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 20,02</t>
+          <t>-5,32; 12,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,88; 14,42</t>
+          <t>-2,73; 17,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 6,88</t>
+          <t>9,13; 52,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,63; 14,57</t>
+          <t>-3,26; 13,36</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 8,83</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 17,39</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 32,88</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>-21,66%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>126,41%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>160,11%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>254,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>110,46%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>131,17%</t>
+          <t>241,28%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>933,44%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>118,4%</t>
+          <t>84,01%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>122,45%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>248,8%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 647,25</t>
+          <t>-71,27; 529,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-68,99; 493,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 913,05</t>
+          <t>-49,9; 870,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 613,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 357,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 655,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,78; 427,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 204,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>3,86; 427,25</t>
+          <t>-42,3; 596,32</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-75,32; 430,73</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-21,82; 723,76</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 1276,65</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
           <t>2,89</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>7,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,42</t>
+          <t>0,09; 6,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,67</t>
+          <t>2,02; 9,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,42</t>
+          <t>0,21; 6,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,66</t>
+          <t>1,33; 7,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,89</t>
+          <t>-0,02; 5,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,53</t>
+          <t>-0,7; 5,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,79</t>
+          <t>0,02; 6,04</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,4</t>
+          <t>6,02; 18,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,05</t>
+          <t>1,03; 5,06</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 5,99</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 5,23</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 11,72</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>114,97%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>112,97%</t>
+          <t>177,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>113,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>81,18%</t>
+          <t>148,2%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>100,57%</t>
+          <t>83,64%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>102,81%</t>
+          <t>359,14%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>68,44%</t>
+          <t>106,04%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>128,01%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>106,16%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>257,32%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 138,56</t>
+          <t>-2,51; 353,41</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>17,38; 282,59</t>
+          <t>40,64; 529,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 151,36</t>
+          <t>2,06; 381,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,97; 200,57</t>
+          <t>19,72; 435,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>17,74; 210,63</t>
+          <t>-7,08; 291,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>20,87; 247,54</t>
+          <t>-19,92; 301,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>8,24; 140,19</t>
+          <t>-7,1; 306,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>42,09; 191,89</t>
+          <t>134,41; 851,38</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,34; 150,34</t>
+          <t>23,23; 245,67</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>42,35; 279,87</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 251,78</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>119,55; 540,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
